--- a/biology/Botanique/Parc_de_la_Rivière-du-Moulin/Parc_de_la_Rivière-du-Moulin.xlsx
+++ b/biology/Botanique/Parc_de_la_Rivière-du-Moulin/Parc_de_la_Rivière-du-Moulin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_la_Rivi%C3%A8re-du-Moulin</t>
+          <t>Parc_de_la_Rivière-du-Moulin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Rivière-du-Moulin est un parc public de la ville de Saguenay, au Saguenay–Lac-Saint-Jean, dans la province de Québec, au Canada.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_la_Rivi%C3%A8re-du-Moulin</t>
+          <t>Parc_de_la_Rivière-du-Moulin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce parc récréo-touristique s'étend sur la rive ouest de la rivière du Moulin à l'est de Chicoutimi. Il est délimité à l'ouest par la rue des Roitelets où se trouve le pavillon d'accueil. Des agrandissements en aval de la rivière sont en cours[1],[2].
-Les activités proposées, dans des sentiers balisés en terrain boisé, sont : la marche, le jogging, le vélo de montagne, la pêche, l'interprétation de la nature, la raquette et le ski de fond[3],[4].
-L'attrait principal est la rivière du Moulin, ses rapides et ses trois chutes[5] : les chutes des Sables, à l'Équerre et du Voile de la mariée[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce parc récréo-touristique s'étend sur la rive ouest de la rivière du Moulin à l'est de Chicoutimi. Il est délimité à l'ouest par la rue des Roitelets où se trouve le pavillon d'accueil. Des agrandissements en aval de la rivière sont en cours,.
+Les activités proposées, dans des sentiers balisés en terrain boisé, sont : la marche, le jogging, le vélo de montagne, la pêche, l'interprétation de la nature, la raquette et le ski de fond,.
+L'attrait principal est la rivière du Moulin, ses rapides et ses trois chutes : les chutes des Sables, à l'Équerre et du Voile de la mariée.
 			Sentier
 			Mésange à tête noire
 			Chute
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_de_la_Rivi%C3%A8re-du-Moulin</t>
+          <t>Parc_de_la_Rivière-du-Moulin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les terres où est situé le parc ont été cédées à la ville de Chicoutimi en 1976 par les Sœurs Augustines de l'Hôtel-Dieu de Chicoutimi à la condition d'en préserver la vocation de parc au service de la population[7]. Elles y avaient un ermitage.
-En 1973 est réalisé un premier projet d'aménagement de piste de ski de fond dans le cadre d'un programme fédéral d'aide aux initiatives locales. De 1973 à 1980, la ville de Chicoutimi réalise trois autres plans d'aménagement[8].
-Le pavillon d'accueil est agrandi en 2010[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les terres où est situé le parc ont été cédées à la ville de Chicoutimi en 1976 par les Sœurs Augustines de l'Hôtel-Dieu de Chicoutimi à la condition d'en préserver la vocation de parc au service de la population. Elles y avaient un ermitage.
+En 1973 est réalisé un premier projet d'aménagement de piste de ski de fond dans le cadre d'un programme fédéral d'aide aux initiatives locales. De 1973 à 1980, la ville de Chicoutimi réalise trois autres plans d'aménagement.
+Le pavillon d'accueil est agrandi en 2010.
 </t>
         </is>
       </c>
